--- a/medicine/Sexualité et sexologie/Emma_Becker/Emma_Becker.xlsx
+++ b/medicine/Sexualité et sexologie/Emma_Becker/Emma_Becker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emma Becker, née Emma Durand[réf. nécessaire] le 14 décembre 1988 en Île-de-France, est une écrivaine française. Elle est l'auteure de cinq livres à mi-chemin entre l'autofiction, le roman et l'autobiographie.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emma Becker est la fille d'un père entrepreneur dans l’événementiel et d'une mère psychologue, petite-fille de médecin ; ses parents se séparent en 2001[1]. Elle a deux sœurs[2], Louise et Alice. Elle est scolarisée à l'Institut Montalembert à Nogent-sur-Marne, obtient en 2006 son bac avec mention, puis suit des études supérieures en lettres[2] à l'université Sorbonne-Nouvelle[1].
-Elle publie deux ouvrages : Mr (Éditions Denoël 2011) où elle aborde par le biais d'un double autofictionnel, l'emprise érotique et passionnelle d'un chirurgien ami de ses parents et de son oncle, durant plus d'un an[1],[3]. Dans Alice (Denoël) publié en 2015, elle aborde la difficulté à s'extraire d'une relation d'amour étouffante avec des parents post-soixante-huitards envahissants, tout en analysant son propre rapport aux hommes, à travers la relation contrariée entretenue avec un amant de vingt ans son aîné. 
-C'est en 2013 qu'elle décide de partir à Berlin[2] après une rupture amoureuse[4]. Trois ans plus tard, elle a un enfant[4].
-En 2019 paraît La Maison, roman d'autofiction dans lequel elle évoque son expérience de la prostitution à Berlin. Il reçoit le prix du roman des étudiants France Culture-Télérama 2019[5].
-En 2022, elle publie chez Albin Michel L'Inconduite, son quatrième roman, inspiré par la naissance de son enfant[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma Becker est la fille d'un père entrepreneur dans l’événementiel et d'une mère psychologue, petite-fille de médecin ; ses parents se séparent en 2001. Elle a deux sœurs, Louise et Alice. Elle est scolarisée à l'Institut Montalembert à Nogent-sur-Marne, obtient en 2006 son bac avec mention, puis suit des études supérieures en lettres à l'université Sorbonne-Nouvelle.
+Elle publie deux ouvrages : Mr (Éditions Denoël 2011) où elle aborde par le biais d'un double autofictionnel, l'emprise érotique et passionnelle d'un chirurgien ami de ses parents et de son oncle, durant plus d'un an,. Dans Alice (Denoël) publié en 2015, elle aborde la difficulté à s'extraire d'une relation d'amour étouffante avec des parents post-soixante-huitards envahissants, tout en analysant son propre rapport aux hommes, à travers la relation contrariée entretenue avec un amant de vingt ans son aîné. 
+C'est en 2013 qu'elle décide de partir à Berlin après une rupture amoureuse. Trois ans plus tard, elle a un enfant.
+En 2019 paraît La Maison, roman d'autofiction dans lequel elle évoque son expérience de la prostitution à Berlin. Il reçoit le prix du roman des étudiants France Culture-Télérama 2019.
+En 2022, elle publie chez Albin Michel L'Inconduite, son quatrième roman, inspiré par la naissance de son enfant.
 En 2023, elle publie son cinquième roman Odile l'été chez Juillard, collection « Fauteuse de trouble ».
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mr., Paris, éditions Denoël, 13 janvier 2011, 480 p. (ISBN 978-2-207-10950-2)
 Alice, Paris, éditions Denoël, 8 janvier 2015, 352 p. (ISBN 978-2-207-12380-5)
